--- a/data/trans_dic/P16B18-Nacimiento-trans_dic.xlsx
+++ b/data/trans_dic/P16B18-Nacimiento-trans_dic.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyos medicamentos anticonceptivos fueron recetados (tasa de respuesta: 98,6%)</t>
+          <t>Mujeres menores de 55 años cuyos anticonceptivos consumidos fueron recetados por el médico (tasa de respuesta: 98,6%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -771,7 +771,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyos medicamentos anticonceptivos fueron recetados (tasa de respuesta: 98,6%)</t>
+          <t>Mujeres menores de 55 años cuyos anticonceptivos consumidos fueron recetados por el médico (tasa de respuesta: 98,6%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
